--- a/MIS 2021_Raw/MIS_REPORT_生产损耗.xlsx
+++ b/MIS 2021_Raw/MIS_REPORT_生产损耗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ZW_QPython\_MIS-DATA\MIS 2021_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762F9104-C693-4512-A8D4-BDEA04DA8ECD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119C370A-6ADC-4AC4-AAC4-A5BE5A4FE6DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -954,6 +954,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,7 +1281,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -4539,7 +4542,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -7589,13 +7592,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:R100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -7615,7 +7621,62 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" ht="20.25" customHeight="1"/>
+    <row r="2" spans="1:18" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>2</v>
+      </c>
+      <c r="C2" s="26">
+        <v>3</v>
+      </c>
+      <c r="D2" s="26">
+        <v>4</v>
+      </c>
+      <c r="E2" s="26">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>6</v>
+      </c>
+      <c r="G2" s="26">
+        <v>7</v>
+      </c>
+      <c r="H2" s="26">
+        <v>8</v>
+      </c>
+      <c r="I2" s="26">
+        <v>9</v>
+      </c>
+      <c r="J2" s="26">
+        <v>10</v>
+      </c>
+      <c r="K2" s="26">
+        <v>11</v>
+      </c>
+      <c r="L2" s="26">
+        <v>12</v>
+      </c>
+      <c r="M2" s="26">
+        <v>13</v>
+      </c>
+      <c r="N2" s="26">
+        <v>14</v>
+      </c>
+      <c r="O2" s="26">
+        <v>15</v>
+      </c>
+      <c r="P2" s="26">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>17</v>
+      </c>
+      <c r="R2" s="26">
+        <v>18</v>
+      </c>
+    </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="18.2" customHeight="1">
       <c r="A3" s="24" t="s">
         <v>0</v>
